--- a/Visualization/Excel Specialization/Excel Skills for Business Intermediate 2/week 1/W1_V5 AdvancedConditionalFormatting.xlsx
+++ b/Visualization/Excel Specialization/Excel Skills for Business Intermediate 2/week 1/W1_V5 AdvancedConditionalFormatting.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mq20084022\Google Drive\Excel MOOC\003 Course 3 - Intermediate II\01 Week 1\01 Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\Excel Skills for Business Intermediate 2\week 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809D2E92-7FBE-4BD6-B5DE-C08AE31197BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9168"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -465,7 +466,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="00"/>
@@ -583,7 +584,18 @@
     <cellStyle name="Heading 3" xfId="2" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border outline="0">
         <bottom style="medium">
@@ -651,51 +663,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Inventory" displayName="Inventory" ref="A3:M54" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" headerRowCellStyle="Heading 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Inventory" displayName="Inventory" ref="A3:M54" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" headerRowCellStyle="Heading 3">
   <tableColumns count="13">
-    <tableColumn id="1" name="Product Code"/>
-    <tableColumn id="2" name="Item Description"/>
-    <tableColumn id="3" name="Supplier"/>
-    <tableColumn id="4" name="Department"/>
-    <tableColumn id="5" name="Origin"/>
-    <tableColumn id="6" name="Location"/>
-    <tableColumn id="7" name="Rack" dataDxfId="9"/>
-    <tableColumn id="8" name="In Stock" dataDxfId="8"/>
-    <tableColumn id="9" name="Target Level" dataDxfId="7"/>
-    <tableColumn id="10" name="Reorder Level" dataDxfId="6"/>
-    <tableColumn id="11" name="Last Ordered" dataDxfId="5"/>
-    <tableColumn id="12" name="Unit Cost" dataDxfId="4"/>
-    <tableColumn id="13" name="Retail Price" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Product Code"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Item Description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Supplier"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Department"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Origin"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Location"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Rack" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="In Stock" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Target Level" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Reorder Level" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Last Ordered" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Unit Cost" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Retail Price" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="OriginsTable" displayName="OriginsTable" ref="E3:E12" totalsRowShown="0" headerRowBorderDxfId="2" headerRowCellStyle="Heading 3">
-  <autoFilter ref="E3:E12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="OriginsTable" displayName="OriginsTable" ref="E3:E12" totalsRowShown="0" headerRowBorderDxfId="3" headerRowCellStyle="Heading 3">
+  <autoFilter ref="E3:E12" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Origins"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Origins"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="SuppliersTable" displayName="SuppliersTable" ref="A3:A10" totalsRowShown="0" headerRowBorderDxfId="1" headerRowCellStyle="Heading 3">
-  <autoFilter ref="A3:A10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="SuppliersTable" displayName="SuppliersTable" ref="A3:A10" totalsRowShown="0" headerRowBorderDxfId="2" headerRowCellStyle="Heading 3">
+  <autoFilter ref="A3:A10" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Suppliers"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Suppliers"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="DepartmentsTable" displayName="DepartmentsTable" ref="C3:C9" totalsRowShown="0" headerRowBorderDxfId="0" headerRowCellStyle="Heading 3">
-  <autoFilter ref="C3:C9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="DepartmentsTable" displayName="DepartmentsTable" ref="C3:C9" totalsRowShown="0" headerRowBorderDxfId="1" headerRowCellStyle="Heading 3">
+  <autoFilter ref="C3:C9" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Departments"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Departments"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -997,10 +1009,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3233,30 +3247,35 @@
       <c r="O54" s="12"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H4:H54">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>H4&lt;J4</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Rack Number" error="Please enter a rack number between 1 and 9" promptTitle="Rack Number" prompt="Please enter a rack number between 1 and 9" sqref="G4:G54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Rack Number" error="Please enter a rack number between 1 and 9" promptTitle="Rack Number" prompt="Please enter a rack number between 1 and 9" sqref="G4:G54" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
       <formula2>9</formula2>
     </dataValidation>
-    <dataValidation type="custom" errorStyle="warning" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Code" error="Should be 8 characters_x000a_" sqref="A4:A54">
+    <dataValidation type="custom" errorStyle="warning" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Code" error="Should be 8 characters_x000a_" sqref="A4:A54" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>COUNTIFS(Product_Code,A4)&lt;=1</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F54" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Basement,Showroom"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E54" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Origins</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C54" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Suppliers</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D54" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Departments</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K54">
+    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K54" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>TODAY()</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:J54">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:J54" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>5</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -3270,7 +3289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
